--- a/sample_data/two_monomer_systems/pdb-5-076.xlsx
+++ b/sample_data/two_monomer_systems/pdb-5-076.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10315"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10402"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/suprajachittari/Documents/GitHub/prism/sample_data/three_monomer_systems/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/suprajachittari/Documents/GitHub/prism/sample_data/two_monomer_systems/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A71907E-45BE-2B47-A1EA-21DF9BAF2DB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39939C3A-2841-9B4A-AB00-8D0FF8E694C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57900" yWindow="2920" windowWidth="30940" windowHeight="16780" activeTab="2" xr2:uid="{5BA83EA1-6DB4-406D-83B3-548D0E6A695F}"/>
+    <workbookView xWindow="3660" yWindow="8380" windowWidth="28800" windowHeight="16280" activeTab="2" xr2:uid="{5BA83EA1-6DB4-406D-83B3-548D0E6A695F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -11840,7 +11840,7 @@
   <dimension ref="A1:O181"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -11899,6 +11899,10 @@
         <f>$B2/integration!$B3*integration!E3</f>
         <v>86.704788776989659</v>
       </c>
+      <c r="E2">
+        <f>C2/SUM(C2:D2)</f>
+        <v>0.33581711506755951</v>
+      </c>
       <c r="F2">
         <f>C$2-C2</f>
         <v>0</v>
